--- a/data/hotels_by_city/Dallas/Dallas_shard_374.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_374.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Peter V</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I always stay here for work and they are always reliable. I love the rooms and the location. It's close to lots of places to eat. The rooms are clean and updated. They are always accommodating if I forget a toothpaste or something. Can't wait for my next stay.More</t>
   </si>
   <si>
+    <t>robertff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r457689239-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>My wife and I stayed in the Holiday Inn Express, Greenville, TX on 2/2/2017.  The motel was undergoing renovation at the time.  Our room was spacious and clean and contained the usual items found in most quality motel chains.  The bed was comfortable, and we were pleased that the motel furnished 4 pillows, two firm and two soft.  One complaint we had was the very small closet for hanging our clothes.  It was no more than 2 ft. wide and served as the storage place for the ironing board.  We had to remove the board and lean it against the wall in order to have enough space for the few clothes we had for the overnight stay.  I was surprised that a Holiday Inn Express would have such a poorly designed place for hanging clothes.  The breakfast had a good variety of items, and, of course, the cinnamon rolls are always a popular item.  I had never stayed in a HIE which had a pancake machine.  You push a button, and, in a few seconds, two pancakes emerge from the other end, one a few seconds after the first.  An ingenious idea; unfortunately, they were two of the worst pancakes I had ever eaten.  I suggest they return to the usual waffle maker.More</t>
   </si>
   <si>
+    <t>kacie984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r452973628-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>checked in late after a issue at another hotel. it was nice and cozy but the noise the construction people were making in the morning was not ok. i paid $115 for a night to sleep and be able to wake up peacefully. i understand they are remodeling but hey at least wait till check out time. besides that it was alrightMore</t>
   </si>
   <si>
+    <t>Jeff C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r422981125-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>I stayed here for a single night and had a decent night's sleep.I booked a suite well in advance and being a Spire member my profile always requests a room away from the elevator. When I arrived the desk clerk actually mentioned that I request a room away from the elevator and I could move to a single room if I wished as the only suite is next to the elevator. Not exactly what a long term IHG member wants to hear.Oh well, let's move on to the room. My first impression is that the room looked dated. A decent coat of paint and a few updated trimmings would make a world of difference. The room was okay, a typical hotel room with cold A/C.I did not eat the breakfast or use the gym so I can't comment on those amenities. Overall, it is not a bad hotel and I will be giving them another opportunity in the near future to provide a better room with my reservation.More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r422824045-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>We've been on the road for several days --- Fort Lauderdale out to California --- and will be on the for several more days.  We made it through Dallas, heading east late last night.  At our first stop for a hotel, every hotel in the area was booked.  So it was the case for the next few miles.Finally we made it to the Holiday Inn Express here in Greenville.  It was very late.  I said to the young man behind the counter, please tell me you have at least one room available.  His response "yes" was music to my hears.He made the check in very very.  The location is easy to access. Everything is in tip top shape for an over night stay or even an extended stay. I would highly recommend checking this location out if you need a place to stay in the area. Great price also.  So, hats off to the night shift manager, Joshua. Well done and thank you for everything.  If there is an employee of the week or month, I highly recommend Joshua. (Desk Manager on the night of Monday, September 26, 2016).More</t>
   </si>
   <si>
+    <t>stevenpcarrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r420985415-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Stayed here during baseball tour. Place was super busy. All staff members were super nice even though kids were running around and well being kids. Super clean place. Ever time I looked around staff were cleaning. Had their normal breakfast. They had late breakfast and ck out which was super nice seeing how you never know when you will play next game. I know they don't have this all the time but was great. I have to say this was probably one of my best stays at a Holiday Inn. More</t>
   </si>
   <si>
+    <t>WSargent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r419539220-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>This hotel is typical, it needs updating, the furniture is old and worn. The carpet looked dirty. The doors were dirty. The beds were ok, breakfast was ok, friendly staff. Price was right though, I'd probably stay here again.More</t>
   </si>
   <si>
+    <t>taylor2349</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r409789214-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>stayed her for the night with my boss. the rooms are clean and newly renovated. i loved the way it looks from the outside its like wow especially in greenville? very surprised to see a hotel like this here. and the room was nice had a good sleep and plently of hot water. the breakfast was good too. the breakfast area was huge which is very good it was not over crowded.More</t>
   </si>
   <si>
+    <t>Craig C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r389452975-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>I've used this hotel 20-30 for work and it's always been good.  Staff is always pleasant and helpful.  Rooms are always clean.  Breakfast usually seems to satisfy.  It's your typical Holiday Inn Express breakfast, but it usually will do for me.If you need a place to stay for one, or even a few, this is a great option!More</t>
   </si>
   <si>
+    <t>wildwires</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r383652523-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>As a family we travel a good bit.  Unfortunately this was not our best experience.   When we got to our room the smell of fabric freshener almost kept us out of the room.   Clean don't cover!!!   None of us slept because of all of the noise coming from the hall.  We asked the staff to address the issue but that didn't help.     We also tried to take our children to the pool where we were greeted by people smoking and drinking in the pool.    Sorry Holiday Inn.  Not your best efforts!!!!More</t>
   </si>
   <si>
+    <t>Denver P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r381925722-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -445,6 +478,9 @@
   </si>
   <si>
     <t>While on our last trip to Greenville we decided to use some of our IHG points to book our room at the Holiday Inn Express. Not all of the railings are available to book with points but the young man at the front desk was happy to upgrade our room after we booked. Our room overlooked the pool which was small but clean. Not only did our 4 kids have fun but we had several friends visit who all enjoyed themselves. The hotel was also very accommodating with our dog as well as our friends service dog.We'll be sure that week book here in the future and would recommended it of your just passing through or starting for the weekend.More</t>
+  </si>
+  <si>
+    <t>HelenS247</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r380712438-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
@@ -477,6 +513,9 @@
 That is why my...There were good things and bad things about this hotel.  First the good things.  Rm 127 was super nice, roomy, and a great lounge chair.  It had a lot of nice storage. There was an amazing mirror in the bathroom, with four florescent bulbs.  It was an excellent mirror for applying makeup. The frig passed my freezer test.  A lot of mini refrigerators do not keep your food cold enough.  So when I go into the room, I put ice in the ice bucket, put it in the frig and turn the thermostat all the way down.  If the ice melts, I know the frig is not working correctly.  If the ice stays frozen, then that thermostat is working and the frig is safe to use.  I love keeping ice in my room, so I don't have to keep walking down to the ice maker. The front desk told me the hotel was about 14 yrs old and they are in the process of renovating.  We had two rooms, one was renovated, but the other was not.  The older room was damp and dusky.  Their were also gnats in the rooms from previous water leaks.  Also the roll in shower was spilling too much water on the bathrm floor.  They are supposed to be built with a floor which is has an incline, so the water flows towards the drain, not the middle of the floor.  That is why my review is mixed.  The front desk told me the rooms with the king beds are renovated, and the rest of the rooms are going to be renovated in Nov.  One other issue is the water leaks in the rooms and the hallway.  We stayed there during and after a lot of rain had fallen in the area.  Okay, so I get it, sometimes the roof leaks, or water doesn't drain like it supposed to, but this requires immediate and vigorous cleaning.That did not happen.  As soon as I walked in the front door, the stench of mold, mildew, and wet carpet assailed my nostrils.  I asked the front  desk if they had water leaks, and the lady looked at me astonished, like how in the world did I know.  Then she sent someone off to do more cleaning.  I don't know how the rest of the rooms were but our two rooms on the first floor were apparently pretty close to the water leak.  Rm 125 (the unrenovated rm) had gnats from water leaks &amp; wet carpet/pads.As I said before rm 127 was pretty good.  So that is why I give this hotel a mixed review.  I will probably stay there again, as long as I could get a nice room.  Hopefully this hotel will get better after they renovate.  If you are a super picky customer, you are probably not going to be happy here.More</t>
   </si>
   <si>
+    <t>camreal247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r373535577-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>We were in town for a baseball tournament and booked here.  Sign said check in at 3 and it was after 3 when we arrived and our room was not clean.  We were given the key and arrived to a dirty room with sheets off the bed and obvious signs that room was not ready.  We waited about 20 minutes for them to clean the room, got in the room and someone else walked in on us because they too were assigned that room.  They did move us to another room but the hotel staff was not friendly nor helpful.  You had to ask several times for help with hotel issues. STAFF WAS NOT HELPFUL!!!More</t>
   </si>
   <si>
+    <t>Doug083</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r366570031-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>Great room, great breakfast but when barking dogs are in the hall that is a no no for me.  Dogs should not be allowed in hotels, sorry pet owners but board your pets not everybody likes pets. Also in Texas we eat real sausage not Turkey sausage.  Turkeys are for Thanksgiving but other than that the breakfast was great and hot.More</t>
   </si>
   <si>
+    <t>SUE m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r363482419-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>I'm not normally a big fan of Holiday Inn but, I was tired of driving. So I stopped in. I'm glad I did. It was clean and comfortable rooms. Nice size too. Front desk was very helpful and guided us to the BBQ place right across the street. With your room key you get 10% off ya order. Right off of I-30. Very convenient easy on easy off.But be sure to tell'em Ms Sue sent cha!Enjoy!More</t>
   </si>
   <si>
+    <t>KristasNan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r306973317-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>My husband and I stayed here on a mini-vaca.  The hotel was quiet, clean, and comfortable.  Everything was immaculate!  There was nothing we were disappointed in.  Breakfast was delicious and we even had pancakes in the evening. The pool was sparkling clean.  We sat on a swing near the pool in the evening and never even saw a mosquito.  Can't say enough good things about the hotel or the staff.More</t>
   </si>
   <si>
+    <t>Russ T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r298480049-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -609,6 +660,9 @@
     <t>ADA Compliant!  The staff was extremely helpful, Manager helped me get to my room (I'm in  wheelchair).  Room was clean, bathroom had plenty of maneuverability.  I was thoroughly impressed.  King size bed was a bit high, would be a problem for transfer.  I am not paraplegic, so not a problem.More</t>
   </si>
   <si>
+    <t>ALTravellor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r266269372-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -636,6 +690,9 @@
     <t>This Holiday Inn Express is undergoing renovation.  The parts of the hotel that are complete are nice.  The location is approximately 50-miles northeast of Dallas, TX, two miles from the city's downtown, and right off Interstate 30.The rooms are comfortable, large and clean. Linens and bright white and are clean. The lobby is welcoming and the staff is mostly friendly. The complimentary breakfast is typical HI Express with the dining area having a modern feeling to it. The food is just fine for what it is - fast and free.The hotel has a small pool, free Wi-Fi access, and a 24-hour Business Center.  I can vouch for the Wi-Fi - it works without fail.A few things to consider...  They are undergoing renovation so the work can be distracting during the day.  The housekeeping staff will hound you until you either open the room up so they can clean it or sign a waiver stating you don't want the room cleaned - I get it, but ease it up since I don't need banging on the door while I'm on a conference call.  A few of the towels were fraying.More</t>
   </si>
   <si>
+    <t>RandyAllen5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r262578281-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -663,6 +720,9 @@
     <t>Family of mine got a room here for us together and its an amazing hotel. They are renovating the place you can tell from all construction but the things they are doing to it are very nice. The rooms are very clean and nice, it has a brand new smell and look! The hotel is priced high but you get what you pay for, its amazing to see a hotel like this in Greenville, its huge and new. The morning they had a full breakfast, and we sure did enjoy that! Wish i could of stayed longer but I can't afford to stay multiple days at a hotel like this so stayed at another budget one. Hopefully in the future I can stay at these when I am traveling with my family all the timeMore</t>
   </si>
   <si>
+    <t>Lynn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r253817879-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -690,6 +750,9 @@
     <t>I was in town for business and stayed for 3 days. The staff was VERY nice and the room was clean. The hotel needs some basic maintence in the lobby and rooms. The closet door was falling off and there were baseboards missing in several areas. I would stay there again but would suggest a face lift.More</t>
   </si>
   <si>
+    <t>Maxie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r251370241-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -717,6 +780,9 @@
     <t>This was the best Pet Friendly hotel we have stayed in.  There was no evidence that pets had been there before.  The large pet fee is a great idea as a screening tool.  The staff was very professional and friendly.  The Registration staff were friendly and excellent.  We were especially impressed with Faye, the Breakfast Manager and cook/server.  Her area was spotless, the food was fresh and tasty and her approach to service was friendly and professional...a big PLUS for the hotel.  We travel a lot to the Dallas area so we will make this hotel a regular stop for us.More</t>
   </si>
   <si>
+    <t>Jojobeanm14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r250069218-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -741,6 +807,9 @@
     <t>Our small group arrived late on Friday night and everyone at the front desk was chipper and pleasant. I found the hotel rooms to be very comfortable and clean. The beds and pillows in very good shape and the air and heat working very good. The only thing I could not figure out was how to turn off the closed caption on the tv. (note, the bottom of the remote opens for some more buttons!) but had a very helpful front desk manager help me. Being down the street from the Cracker Barrel was a nice bonus! And thank you so much to the staff for letting the band do a vocal rehearsal in the morning room. You guys rock!More</t>
   </si>
   <si>
+    <t>Kabs56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r243516643-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -768,6 +837,9 @@
     <t>I just wanted to let you know, you have a beautiful hotel, and the most friendly people. We arrived very late Friday night actually 2:00 am Saturday morning. Your night manager was so very sweet and pleasant. We were all so very tired, I couldn’t think of the name of my daughters vehicle model, or license plate. The beds were the best… had I not needed to be at Hunt Regional Hospital I could have slept all day. The breakfast was very good. My son Ronnie Simons whom also stayed there had made the arrangements for us all. Again, thank you. We will be returning in a couple of weeks. Kathy GonzalesSanta Fe, TXMore</t>
   </si>
   <si>
+    <t>Lucybaxteradams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r240828647-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -798,6 +870,9 @@
     <t>Ceiling fan, nice bath products, wonderful breakfast, good lighting, I can't think of anything lacking.The people are very friendly as well.  There are also restaurants in walking distance.The TVs are new, desk for computer work, good pillows.More</t>
   </si>
   <si>
+    <t>Marcus P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r238436655-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -825,6 +900,9 @@
     <t>The staff at this hotel was by far one of the friendliest and most helpful I have ever dealt with. Kudos especially to Faye the breakfast lady, Sandra the head of housekeeping and Colt front desk. We stayed here overall for over a month and except for the hotel needing a remodeling due to it being "flat wore out" IE missing closet doors, grout missing etc. it was a clean and welcoming environment. Management company needs to pay more attention to the upkeep, whomever does the hiring deserves a raise.Also a pet friendly hotel which is fine but I suggest keeping the guest with pets segregated on a designated floor or area, so the rest of us do not have to deal with dogs barking 24/7.More</t>
   </si>
   <si>
+    <t>pperryman321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r233391851-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -852,6 +930,9 @@
     <t>I was extremely presently pleasantly surprised.  Staff was outstanding. Room was extremely clean and pleasant.  We stayed in the two room suite, with garden tub. Late-night vending and snacks downstairs with sodas and such.More</t>
   </si>
   <si>
+    <t>Suzy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r231028585-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -879,6 +960,9 @@
     <t>I'm currently a repeat customer staying for business during the weeks.  The staff is very friendly and courteous and provide a great service, always get my same room upon my return every Sunday.  Faye Hamann has been exceptional in food services very friendly and helpful.   Always greetly everyone and ensuring all our needs are met.  Thanks everyone!!!More</t>
   </si>
   <si>
+    <t>Chuck M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r229767669-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -903,6 +987,9 @@
     <t>We were there for several weeks and got to know the staff and facility as well as anyone can. We have nothing but good to say about the hotel. The staff - Michelle, Chris, Terry, Cole, Trish, Randy, Marcella, Faye - all worked hard to make our stay pleasant, and they succeeded. The hotel was neat and clean. Everything worked, and when we had a problem it was solved right away.We would be happy to stay here anytime!More</t>
   </si>
   <si>
+    <t>Peggy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r224163997-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1014,9 @@
     <t>the lobby was very visitor friendly, staff exceptionally  friendly.  rooms spacious and clean.  breakfast was excellent, and breakfast room staff really nice, helpful and  friendly. rooms 215 and 326 cleaned by linda and mariaMore</t>
   </si>
   <si>
+    <t>jam2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r220127003-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1044,9 @@
     <t>Stayed here for three nights on business.  Nothing out of the ordinary to distinguish the hotel from most others. Room was clean, staff were cordial. Breakfast was nothing to get excited about. Recommend eating breakfast at the Cracker Barrel which is next door. Greenville is pretty skimpy on dinner choices as far as restaurants go. Next time I'll stay in Rockwall.More</t>
   </si>
   <si>
+    <t>Eric Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r192099918-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1065,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Randymagoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r189922725-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1086,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r187895228-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1107,9 @@
     <t>First of all, I absolutely LOVE the fact that you are allowed to bring your small pet with you. That's what was ultimately our deciding factor in which hotel we stayed.  We traveled from Paris to Greenville due to power outages in Paris and had to find a hotel that would except pets because we couldn't leave my little hairless dog (Chinese Crested) in a cold house while we went to a warm hotel. LOL  Anyway, the staff was absolutely awesome and accommodating. The free breakfast was VERY nice. I expected a donut or danish bar and it was actually a very nice breakfast buffet; I was quite impressed. Colt checked us out at the end of our stay and was very helpful. I would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>bobbig375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r187447334-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1134,9 @@
     <t>We live locally and stayed at this hotel during a recent ice storm...we were surprised by how nice and accomodating the staff was even in the midst of chaos around us.  They went out of their way to help us feel comfortable, and Colt was especially helpful.  The rooms were wonderfully appointed...microwaves, mini fridges, etc.  The rooms were exceptionally clean, the breakfast in the mornings was wonderful, and the beds and pillows were super soft. VERY comfortable. I am a light sleeper and have 'issues' sleeping away from home...but these beds were fantastic...we got 2 great nights of sleep here!  We were so pleasantly surprised by the fantastic stay...not a single complaint. Within walking distance to Cracker Barrel, Tuscan Slice, and several shops.  Will definitely recommend this hotel to others coming through town!More</t>
   </si>
   <si>
+    <t>totheisles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r183969050-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1158,9 @@
     <t>We spent an extended week-end here and were wowed when we first walked in the door.   The decor is classy, warm and inviting.  Our room was immaculate and provided everything we could have asked for and more.   The complimentary breakfast that comes with the room was plentiful, flavorful and gave us such a variety.  This was not a "continental breakfast" in any way.  We had our choice of scrambled eggs, pancakes, sausage, biscuits and gravy, bagels, fruit...  You get my drift.  This hotel's location was easy on and off the freeway, close to restaurants and shopping.  The Holiday Inn Express in Greenville, TX more than met our expectations.  With family in the area, we'll definitely be back.More</t>
   </si>
   <si>
+    <t>raelynne38c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r182557764-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1188,9 @@
     <t>I in town w/ my mom for a couple of nights to attend my Aunt's wedding.  The hotel is beautiful! As you walk into the lobby it's decorated more like an upscale bed &amp; breakfast than a chain hotel. The young man that checked us in was more than friendly &amp; quite cheery &amp; helpful.  The room was nicely furnished, and plenty big.  It cam equipped with a flat screen t.v., fridge &amp; microwave.  Lovely, big bathroom. Breakfast was adequate.  The only criticism is when housekeeping came to clean the room I asked her to return in about an hour, since I was still getting dressed. When we returned from the wedding we found that she had completely forgotten to return to clean the room.  By then it was rather late, and since everything else was so wonderful we decided not to make a fuss.  All in all, a fabulous hotel. I certainly would stay here again.More</t>
   </si>
   <si>
+    <t>RC40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r181872940-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1206,9 @@
     <t xml:space="preserve">This hotel is perfect for the area.  Clean, cost effective, comfortable, up to date; I wouldn't stay anywhere else in Greenville. It's easy access right off the highway and is convenient to the businesses local to Greenville. Big recommend if you have to stay in the area. </t>
   </si>
   <si>
+    <t>Heidi P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r178703413-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1227,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Brett R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r174812707-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1257,9 @@
     <t>We were in Greenville for an event at the Hunt County Fairgrounds and spent the night at the hotel.  We chose the hotel because we have stayed at quite a few Holiday Inn Express hotels over the years and have grown to appreciate their consistency and because of it's proximity to the Fairgrounds.  The property was clean and well-maintained.  The staff was professional and courteous.  We did enjoy that there were several good restaurants and a convenience store that were literally a short walk across the parking lot.  Although very convenient to I-30, the property is far enough away so that no traffic noise could be heard from our room.  The complementary breakfast was typical of this type hotel...good, but nothing to write home about.  Using our AAA discount, we were able to get a 2-bed "suite" for about $100.More</t>
   </si>
   <si>
+    <t>Olivia_Watts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r172042488-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1284,9 @@
     <t>I reserved a room with two beds with Colt. Upon checkin, I was given a room with one. The lady at the checkin on 8/10/13 around 2p.m. was nice and changed it with no problem. Once in the room, I had a hot refrigerator. The nice lady at the desk advised maintenance, who seemed uninterested and bothered that she asked him to check it. Maintenance was unprofessional and not nice. When coming back to my room that nite, I could not get in the side door with my access/room card. I ran to the front to let my handicap mother in the side door and advised the front desk clerk who was dry and almost monotone. She ran my card and said "its inactive" although I had just let my mother in the room. When I asked her to speak with David Darden, the nite manager on duty regarding my displeasure with problems since my checkin, in her noncaring and monotone manner she went to get the nite manager only to return and say that the manager was sending and email and did not "have time" talk to me. I never heard from or saw the manager. Although I was pleased with the lady on checkout on 8/11/13 around noon that had checked me in with the prior day as well, the nite clerk (Jennifer) nite manager (David Darden) MIA, and maintenance "DO NOT" need to be in a position...I reserved a room with two beds with Colt. Upon checkin, I was given a room with one. The lady at the checkin on 8/10/13 around 2p.m. was nice and changed it with no problem. Once in the room, I had a hot refrigerator. The nice lady at the desk advised maintenance, who seemed uninterested and bothered that she asked him to check it. Maintenance was unprofessional and not nice. When coming back to my room that nite, I could not get in the side door with my access/room card. I ran to the front to let my handicap mother in the side door and advised the front desk clerk who was dry and almost monotone. She ran my card and said "its inactive" although I had just let my mother in the room. When I asked her to speak with David Darden, the nite manager on duty regarding my displeasure with problems since my checkin, in her noncaring and monotone manner she went to get the nite manager only to return and say that the manager was sending and email and did not "have time" talk to me. I never heard from or saw the manager. Although I was pleased with the lady on checkout on 8/11/13 around noon that had checked me in with the prior day as well, the nite clerk (Jennifer) nite manager (David Darden) MIA, and maintenance "DO NOT" need to be in a position of customer service or need remedial training in the same. I would note avise this hotel to anyone due to poor customer service, problems after checkin and value. Also my handicap room was across the hall from housekeeping, who when they came on duty Sun morning slammed the door as the entered and exited, starting at 7ish and continued every 5-10 minutes until I checked out.More</t>
   </si>
   <si>
+    <t>Ann W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r161798576-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1308,9 @@
     <t>Wonderful service.Special thanks to Patricia F-she checked us in; very friendly and helpfulSpecial thanks to: Patricia P and Jacob-checked us out; very polite.Very clean .  We enjoyed it !!Easy access to several restaurants.  We felt we were in a safe location.  We walked to a restaurant to have dinner.  Breakfast was very enjoyable.  We were supplied a large array of choices for breakfast.  We were placed on the 1st floor because we had 2 small dogs with us.  The lady that checked us in (Patricia F) was very considerate and knowledgeable to take in to account, it would be easier for us to be on the 1st floor because of the animals needing to use the bathroom--not having to take the elevator.  She was very impressive.More</t>
   </si>
   <si>
+    <t>Rlath82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r160175848-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1326,9 @@
     <t>I stayed at this property for the past two months. The customer service here is absolutely awesome. Christian, Heidi, Austin, Justin, Jennifer, Candyce and Alexis were just a few of the team that truly made my home away from home great for me. Their committment to their customers is commendable. I would gladly stay at this property again.</t>
   </si>
   <si>
+    <t>Dannita M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r159641228-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1353,9 @@
     <t>I checked into my room around 9:00 and was woke up at 12:53 a.m. by a couple trying to use their key card.  They left and came back with the general manager who stated no one was supposed to be in the room I was in (how in the hell did he think I got in the room) and asked me to call and verify with the front desk!! I called and she stated she did not have me listed in that room. Said she was sorry for the inconvenience.  A few minutes later she called back and said she was trying to verify my reservations which I stated that the were booked online the day before.  They also verified my reservations when I got there because they had run a copy of my credit card!!! What a bunch of idiots.   When I complained at check out the front desk clerk said he was aware of my situation because the general manager had already informed him of the incident.  But guess what - the clerk tried to call the general manager to see about compensation but he apparently has yet to answer his phone.  I also am a priority club member and I am not one bit impressed with last nights reward.  There are numerous hotels in Greenville, Texas and I do not recommend staying at this Holiday Inn.More</t>
   </si>
   <si>
+    <t>A M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r159567693-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1377,9 @@
     <t>I stayed her two weeks ago.  I recently moved out of the area and will be coming back on a regular basis for business and to visit family and attend family functions. I spend two nights at your Holiday Inn.  The first day and night was excellent. The second evening and night was a nightmare.There a bus load of students, who ran the hallways all night. Slamming doors, laughing and playing in the hallways. And when I went down to go out to dinner, they were on every floor, jumping on and off the elevator. (I was on the third floor, near the end of the hallway. The next morning I called down to ask if I could have a late check-out hoping I could get atleast some sleep since I had a long drive ahead of me and was told no, unless I was a Priority Club member.  When I said something about the noice during the night, I was given no 'sorry', nothing.  I could have gotten on my Ipad and joined your Priority Club, but I didn't. I did check out by noon and promptly went across the street and checked in at the Hampton Suites for another night.  I will continue to stay at the Hampton Inn Greenville on my monthly visits. By the way, I asked for the General Manager's name or business card to share my experience and was given the card for tripadvisor.More</t>
   </si>
   <si>
+    <t>JohnF47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r155979364-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1398,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Scott F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r154439001-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1419,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>167Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r153099122-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1446,9 @@
     <t>A colleague and I stayed here for two nights while in town on business. This property is relatively fresh and well-maintained. The beds are comfortable and the rooms are quiet. My only complaint would involve the snack shop. The freezer was out of order and the candy was old and stale.More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r143854876-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1470,9 @@
     <t>I have stayed at this hotel numerous times in the past and will continue to utilize them in the future. The staff is helpful and courteous. Sabrina (the Guest Service Mgr.) has a great attitude, Christian is always helpful and kind, and Jennifer, Patricia &amp; Candice are always a delight to see with their bubbly personalities and cheerful smiles.The rooms are spacious &amp; clean and the beds are very comfortable with plenty of pillows. The breakfast in the morning will get you going for the day.And by showing your room key at several of the establishments nearby, get a 10% discount off of your total charges.Also, there are plenty of restaurants and shopping nearby to choose from.More</t>
   </si>
   <si>
+    <t>ohiograndma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r142519390-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1500,9 @@
     <t>To start with I'm a Priorty Club Platium member, at this hotel that is out the window. They didn't care one way or the other. The check in girl was very unwelcoming, and acted like she didn't want to be there. My wife and I stayed two nights, the first night in the room was typical, other than there was dirty towels left behind the bathroom door from someone else, the second day, no maid service or clean towels. My wife finaly at 6 pm went to the front desk and asked for towels. If you like a good breakfast, forget it. Cold eggs, rolls, and stale bread. My wife went to get some milk at breakfast bar, and it was bad, it came out of the carton in chunks. We went to request some warm fresh food and found the girl that was keeping up the breakfast bar sleeping in the back room. Other than that everything wes just fine.More</t>
   </si>
   <si>
+    <t>Becky K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r133826735-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1518,9 @@
     <t xml:space="preserve">I stayed here for a business trip. I arrived in the evening and the staff had everything all prepared. The room was big, clean and comfortable. The free wifi was fast and easy to connect. The only complaint is the smell of smoke in the hallways (but the non smoking room was fine) and by the front entrance. </t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r131107196-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +1539,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>SharoninOK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r129839665-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1563,9 @@
     <t>My husband and I stayed here one night while driving from Round Rock, TX to Memphis, TN.  We arrived around 9:30 p.m.; plenty of parking and the lot was well lit. Beautiful lobby - used a luggage cart to bring our belongings into the lobby.  Despite being in and out of the lobby, and talking with my husband, we had to wait about 8 minutes until the desk clerk appeared. No problems with checkin; received the higher floor away from the elevator room we requested.  The hotel was very quiet; room was very clean; all the linens and bedding were in good shape; everything was in working order.  Bathroom was good size, very clean. My only request is that hotels STOP placing the shelf for clean bath towels over the toilet!! Beds were comfortable and we had a good nights sleep.  Breakfast the next morning was fine - the typical HIE fare but it was hot, the room was kept clean, and the attendant never allowed any of the breakfast food to run out.  Nice size area for breakfast.  Took advantage of the AARP rate we recently have qualified for (lol); very good value. Should we be traveling along I-30 in this area in the future, we would stay here again.More</t>
   </si>
   <si>
+    <t>dragheda32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r129169626-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1584,9 @@
     <t>My husband and I stopped here for the night on our way back to upstate New York from Fort Hood.  We had made an emergency drive down on the Monday before because our son-in-law was involved in, what turned out to be, a fatal motorcycle accident on the 13th.  We slept in the car on the way down and spent the rest of the week at our daughter's house in Copperas Cove on an air mattress.  All I can say is that I am absolutely grateful that we selected this Holiday Inn to stop at.  The room was wonderful and spacious, the bed was unbelievably comfortable and the biscuits and sausage gravy for breakfast was an unexpected treat.More</t>
   </si>
   <si>
+    <t>Crafthill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r125093743-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1602,9 @@
     <t>Clean and modern rooms. Priced well for this location. Not a lot of hotels in this area that are new and well maintained. The rooms are exceptional for this area. Service was excellent. Bakst was good but not great.</t>
   </si>
   <si>
+    <t>JimCon2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r121658126-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1632,9 @@
     <t>What a good travel esxperience. Great facility, great staff, good size room and laid out perfectly for relaxation and to getting work done. Breakfast was hot, tasteed good, and nutrious . . . and ready every morning! I was there for a little over a month and enjoyed every day!More</t>
   </si>
   <si>
+    <t>TravelGrandma10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r121181535-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1656,9 @@
     <t>We stayed 1 night while passing through.  Hotel was clean, the room was spacious and well decorated and the bed linens were high quality.  Service was friendly and breakfast was more than enough.  There were numerous good restaurants in the area.  The only problem was major construction in the area.  We will stay there again.More</t>
   </si>
   <si>
+    <t>Ardis G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r118542553-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1686,9 @@
     <t>We were there the weekend of 9/11, 2011. Anyone who plans a stay, make sure you have your cellphone.. all incoming calls were blocked (not by our request) and the message light blinked all night. Phone worked the morning of checkout. One of the clerks had a bad attitude. otherwise, not bad.More</t>
   </si>
   <si>
+    <t>torishae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r117953237-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1704,9 @@
     <t>Other then the noisy location this is a great place to stay, there aren't many choices to choose from to eat but it has Red Lobster, Tamollys, Applebees and Chilies oh and a Cracker Barrel all within walking distance.  There are also some other small places to eat!  Very clean and quiet, the break fast here is great and the customer services is good.  I would definately stay here again...</t>
   </si>
   <si>
+    <t>LifesGood_2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r115032012-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1728,9 @@
     <t>Very nice hotel---Room: nice, spacious rooms, nice tv, tv and microwave (very useful). There was a hair in the fridge though, but nothing incredibly disgusting. The beds were very comfy but there was a small, washed-out stain on the sheets, comfy pillows and nice AC, gets cold though, so bring a jacket or long pajamasInternet: (wi-fi) issues -- called the front desk and they helped a little but it still wouldn't work (room was at the end of the hallway so maybe connection was low, so if you need internet, ask for a room close to the lobby)Bathroom: Bathroom was nice, although there were a few hairs in the tub, but nothing major.Service: service was nice, didn't have any problems with the front desk.Other: Did not stay for breakfast for travel purposes so I cannot comment on it. Only stayed for one night.More</t>
   </si>
   <si>
+    <t>JoeySantiago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r107953398-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1752,9 @@
     <t>Typically, Holiday Inns have a no frills reputation or are just very convenient due to their locations near highways and off exits. It's been roughly 12 years since I've stayed at one, but this particular hotel exceeded my expectations. Upon entering the double doors, the lobby is decorated in clean modern decor/furniture. The hotel staff is very friendly and went out of their way to assist me. My company booked me the suite. Once again not bad.The location is prime given the fact this is Greenville Texas. Restaurants are nearby, a gas station, and Walmart. The free breakfast in the morning is a decent touch and has grab-2-go items for late employees such as myself!I would only recommend this hotel for a short stay, long term: try to stay in Rockwall.More</t>
   </si>
   <si>
+    <t>Pat R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r73036761-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1782,9 @@
     <t>I'm originally from Greenville and stay in hotels when I go back to visit. This is the cleanest, most professional and friendliest place to stay in town. Their breakfast was good and the 2 different folks taking care of the food were very attentive. I accidentally left an iPod speaker setup and when I inquired with David at the desk he was very helpful in getting it shipped to me. I will stay there next time I visit.More</t>
   </si>
   <si>
+    <t>bandit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r65190918-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1812,9 @@
     <t>Large rooms, comfortable beds, nice showers and water pressure.  Brian at the front desk was extremely helpful and friendly.  Good breakfast  - beautiful pool area.  Could not ask for more in a hotel - I will certainly stay here again when I am in the area.More</t>
   </si>
   <si>
+    <t>cdcin01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r46577962-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1833,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>elkayandboro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r15341850-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1854,9 @@
     <t>April 2008</t>
   </si>
   <si>
+    <t>toomuchtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r11548360-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1875,9 @@
     <t>December 2007</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r5460376-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1926,9 @@
     <t>This is just a great hotel in the Greenville area. Restaurants and shopping very close. Hotel is like new, rooms and facilities are excellent. Free use business center a definite plus. Very good continental breakfast. Top notch hotel staff offering excellent service. If you're staying in Greenville, stay here.</t>
   </si>
   <si>
+    <t>Roy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r575217019-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1746,6 +1947,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Global_George</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r567484298-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +1968,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>krysheila99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r562186704-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +1989,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>796glenns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r551980138-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1798,6 +2008,9 @@
   </si>
   <si>
     <t>January 2018</t>
+  </si>
+  <si>
+    <t>AzChupacabra</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d223638-r531579538-Holiday_Inn_Express_Greenville-Greenville_Texas.html</t>
@@ -2323,43 +2536,47 @@
       <c r="A2" t="n">
         <v>41915</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>16092</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2377,56 +2594,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41915</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2444,56 +2665,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41915</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155834</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2505,56 +2730,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41915</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2570,56 +2799,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41915</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>634</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2631,56 +2864,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41915</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155835</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2692,56 +2929,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41915</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155836</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2753,56 +2994,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41915</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155837</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2818,56 +3063,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41915</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2883,56 +3132,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41915</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155838</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2944,56 +3197,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41915</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155839</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3005,56 +3262,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41915</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3072,56 +3333,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41915</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155841</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3139,56 +3404,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41915</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155842</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3204,56 +3473,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41915</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155843</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3265,56 +3538,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41915</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155844</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3330,56 +3607,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41915</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>8034</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3395,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41915</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155845</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3462,56 +3747,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41915</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155846</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3529,56 +3818,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41915</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3596,56 +3889,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41915</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155847</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3663,56 +3960,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41915</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155848</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3730,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41915</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>78850</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3797,56 +4102,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41915</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155849</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3864,56 +4173,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="X25" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41915</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155850</v>
+      </c>
+      <c r="C26" t="s">
+        <v>282</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3931,56 +4244,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="X26" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41915</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155851</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3992,56 +4309,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="X27" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Y27" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41915</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155852</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4057,56 +4378,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="X28" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="Y28" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41915</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>5638</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="L29" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4124,56 +4449,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="X29" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Y29" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41915</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>70200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4191,56 +4520,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X30" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41915</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155853</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K31" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4258,56 +4591,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="X31" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="Y31" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41915</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>27700</v>
+      </c>
+      <c r="C32" t="s">
+        <v>340</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4331,50 +4668,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41915</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>145900</v>
+      </c>
+      <c r="C33" t="s">
+        <v>347</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4398,50 +4739,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41915</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>10648</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4465,50 +4810,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41915</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155854</v>
+      </c>
+      <c r="C35" t="s">
+        <v>361</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="J35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="K35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4530,56 +4879,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="X35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41915</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>21581</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4593,50 +4946,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41915</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155855</v>
+      </c>
+      <c r="C37" t="s">
+        <v>378</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="O37" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4658,56 +5015,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="X37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="Y37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41915</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155856</v>
+      </c>
+      <c r="C38" t="s">
+        <v>388</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="K38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="L38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4721,50 +5082,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41915</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>5573</v>
+      </c>
+      <c r="C39" t="s">
+        <v>394</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4788,50 +5153,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41915</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>80646</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4853,56 +5222,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="X40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41915</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155857</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4924,56 +5297,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="X41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41915</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4997,50 +5374,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41915</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155858</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5064,50 +5445,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41915</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155859</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5129,56 +5514,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="X44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="Y44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41915</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>443</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="K45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5200,56 +5589,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="X45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="Y45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41915</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155860</v>
+      </c>
+      <c r="C46" t="s">
+        <v>451</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="J46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="K46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="L46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="O46" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5273,50 +5666,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41915</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>15976</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5340,50 +5737,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41915</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155861</v>
+      </c>
+      <c r="C48" t="s">
+        <v>465</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5405,56 +5806,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41915</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="K49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5478,50 +5883,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41915</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155862</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="J50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5543,47 +5952,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41915</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>41652</v>
+      </c>
+      <c r="C51" t="s">
+        <v>492</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -5612,50 +6025,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41915</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C52" t="s">
+        <v>498</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="J52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5675,50 +6092,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41915</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155863</v>
+      </c>
+      <c r="C53" t="s">
+        <v>505</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="J53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="K53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="L53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5742,50 +6163,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41915</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155864</v>
+      </c>
+      <c r="C54" t="s">
+        <v>513</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="J54" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="K54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="L54" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5809,41 +6234,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41915</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155865</v>
+      </c>
+      <c r="C55" t="s">
+        <v>520</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="K55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="L55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -5872,50 +6301,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41915</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155866</v>
+      </c>
+      <c r="C56" t="s">
+        <v>526</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5937,56 +6370,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="X56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="Y56" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41915</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>16955</v>
+      </c>
+      <c r="C57" t="s">
+        <v>536</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="J57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="K57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="L57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6008,56 +6445,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="Y57" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41915</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155867</v>
+      </c>
+      <c r="C58" t="s">
+        <v>544</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="J58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="K58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="L58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6079,47 +6520,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="X58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41915</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155868</v>
+      </c>
+      <c r="C59" t="s">
+        <v>554</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
@@ -6148,50 +6593,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41915</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155869</v>
+      </c>
+      <c r="C60" t="s">
+        <v>560</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6211,50 +6660,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41915</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155870</v>
+      </c>
+      <c r="C61" t="s">
+        <v>568</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="J61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="K61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="L61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6278,50 +6731,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41915</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>9206</v>
+      </c>
+      <c r="C62" t="s">
+        <v>576</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6333,56 +6790,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="X62" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="Y62" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41915</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155871</v>
+      </c>
+      <c r="C63" t="s">
+        <v>586</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="J63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="K63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="L63" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6404,56 +6865,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="X63" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="Y63" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41915</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155872</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6477,50 +6942,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41915</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>6528</v>
+      </c>
+      <c r="C65" t="s">
+        <v>603</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="J65" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="K65" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="L65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6544,50 +7013,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41915</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>35688</v>
+      </c>
+      <c r="C66" t="s">
+        <v>610</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="J66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="K66" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="L66" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6611,50 +7084,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41915</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>617</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="J67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="K67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="L67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6676,41 +7153,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41915</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>617</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="J68" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="K68" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="L68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -6729,41 +7210,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41915</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>617</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="J69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="K69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="L69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -6782,50 +7267,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41915</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>79894</v>
+      </c>
+      <c r="C70" t="s">
+        <v>634</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="J70" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="K70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="L70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6843,50 +7332,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41915</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155873</v>
+      </c>
+      <c r="C71" t="s">
+        <v>641</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="J71" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="K71" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="L71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6906,50 +7399,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41915</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155874</v>
+      </c>
+      <c r="C72" t="s">
+        <v>648</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="J72" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="K72" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="L72" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6963,50 +7460,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41915</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>51887</v>
+      </c>
+      <c r="C73" t="s">
+        <v>655</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="J73" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="K73" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="L73" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7020,50 +7521,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41915</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155875</v>
+      </c>
+      <c r="C74" t="s">
+        <v>662</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="J74" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="K74" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="L74" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7077,7 +7582,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
